--- a/resources/TestData/MakeMyTripData.xlsx
+++ b/resources/TestData/MakeMyTripData.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>From City</t>
   </si>
@@ -42,9 +40,21 @@
     <t>Travel Class</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Chennai</t>
   </si>
   <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>First Class</t>
   </si>
   <si>
@@ -54,16 +64,16 @@
     <t>Premium Economy</t>
   </si>
   <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Economy/Premium Economy</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Economy/Premium Economy</t>
   </si>
 </sst>
 </file>
@@ -71,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,15 +103,8 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,19 +117,50 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -144,56 +178,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -201,24 +195,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I4" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:I4"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="From City"/>
-    <tableColumn id="2" name="To City"/>
-    <tableColumn id="3" name="Depature Date"/>
-    <tableColumn id="4" name="Arrival Date"/>
-    <tableColumn id="5" name="Adults Range"/>
-    <tableColumn id="6" name="Children Range"/>
-    <tableColumn id="7" name="Infant Range"/>
-    <tableColumn id="8" name="Travel Class"/>
-    <tableColumn id="9" name="Status"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,25 +484,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125"/>
-    <col min="3" max="3" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375"/>
-    <col min="6" max="6" customWidth="true" width="16.5703125"/>
-    <col min="7" max="7" customWidth="true" width="14.28515625"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="9.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -550,74 +527,74 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="0">
         <v>26</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="0">
         <v>15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="0">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="0">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="0">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
       </c>
       <c r="C3" s="0">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="0">
         <v>25</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="0">
         <v>6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="0">
         <v>5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="0">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
+      <c r="H3" t="s" s="0">
+        <v>15</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
+      <c r="A4" t="s" s="0">
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0">
         <v>19</v>
@@ -634,42 +611,72 @@
       <c r="G4" s="0">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>12</v>
+      <c r="I5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/TestData/MakeMyTripData.xlsx
+++ b/resources/TestData/MakeMyTripData.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>From City</t>
   </si>
@@ -46,31 +47,37 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
     <t>First Class</t>
   </si>
   <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Premium Economy</t>
-  </si>
-  <si>
-    <t>London</t>
+    <t>28 December 2024</t>
+  </si>
+  <si>
+    <t>31 December 2024</t>
+  </si>
+  <si>
+    <t>27-December-2024</t>
+  </si>
+  <si>
+    <t>15 January 2024</t>
+  </si>
+  <si>
+    <t>31/December/2025</t>
+  </si>
+  <si>
+    <t>21 January 2025</t>
+  </si>
+  <si>
+    <t>28/February/2025</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
   </si>
   <si>
     <t>Economy/Premium Economy</t>
-  </si>
-  <si>
-    <t>Paris</t>
   </si>
   <si>
     <t>Pass</t>
@@ -176,13 +183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +506,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="6.42578125"/>
   </cols>
   <sheetData>
@@ -536,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C2" s="0">
-        <v>26</v>
-      </c>
-      <c r="D2" s="0">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
@@ -554,126 +562,104 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>19</v>
+      <c r="E2" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0">
-        <v>25</v>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0">
-        <v>19</v>
-      </c>
-      <c r="D4" s="0">
-        <v>31</v>
-      </c>
-      <c r="E4" s="0">
-        <v>2</v>
-      </c>
-      <c r="F4" s="0">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0">
         <v>0</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0">
-        <v>4</v>
-      </c>
-      <c r="F5" s="0">
-        <v>5</v>
-      </c>
-      <c r="G5" s="0">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0">
-        <v>26</v>
-      </c>
-      <c r="E6" s="0">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s" s="0">
+      <c r="H3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestData/MakeMyTripData.xlsx
+++ b/resources/TestData/MakeMyTripData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>From City</t>
   </si>
@@ -68,9 +68,6 @@
     <t>31/December/2025</t>
   </si>
   <si>
-    <t>21 January 2025</t>
-  </si>
-  <si>
     <t>28/February/2025</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Economy/Premium Economy</t>
+  </si>
+  <si>
+    <t>8 February 2025</t>
   </si>
   <si>
     <t>Pass</t>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="0">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>21</v>

--- a/resources/TestData/MakeMyTripData.xlsx
+++ b/resources/TestData/MakeMyTripData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>From City</t>
   </si>
@@ -77,10 +77,10 @@
     <t>Economy/Premium Economy</t>
   </si>
   <si>
-    <t>8 February 2025</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>12 February 2025</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>17</v>
@@ -565,7 +565,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestData/MakeMyTripData.xlsx
+++ b/resources/TestData/MakeMyTripData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>From City</t>
   </si>
@@ -80,14 +80,13 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>12 February 2025</t>
+    <t>20 February 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,19 +494,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="9.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.42578125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.42578125"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -543,7 +542,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -552,19 +551,19 @@
       <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -588,7 +587,7 @@
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -597,13 +596,13 @@
       <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1">
         <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -614,7 +613,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -623,13 +622,13 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -640,7 +639,7 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -649,13 +648,13 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
